--- a/Defect report.xlsx
+++ b/Defect report.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
